--- a/doc/三级菜单/系统目录菜单重排1215.xlsx
+++ b/doc/三级菜单/系统目录菜单重排1215.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\Master\doc\三级菜单\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC87629E-3052-4ACF-88EF-89F1B25409EF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目录结构" sheetId="1" r:id="rId1"/>
@@ -20,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="352">
   <si>
     <t>一级菜单</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1402,13 +1408,37 @@
   </si>
   <si>
     <t>副总经理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务文件管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100006000004</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100006000004000001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100006000004000002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务文件管理查询</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务文件</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2092,47 +2122,47 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE147"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AE149"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
+      <pane ySplit="1" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E126" sqref="E126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.125" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.75" style="16" customWidth="1"/>
-    <col min="7" max="7" width="20.25" customWidth="1"/>
-    <col min="8" max="8" width="21.625" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.77734375" style="16" customWidth="1"/>
+    <col min="7" max="7" width="20.21875" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" customWidth="1"/>
     <col min="9" max="9" width="22" customWidth="1"/>
-    <col min="10" max="10" width="23.125" customWidth="1"/>
-    <col min="11" max="12" width="0.125" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="23.109375" customWidth="1"/>
+    <col min="11" max="12" width="0.109375" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
-    <col min="14" max="14" width="18.625" customWidth="1"/>
-    <col min="15" max="15" width="13.5" customWidth="1"/>
-    <col min="16" max="16" width="16.25" customWidth="1"/>
-    <col min="17" max="17" width="26.75" customWidth="1"/>
-    <col min="18" max="18" width="27.125" customWidth="1"/>
+    <col min="14" max="14" width="18.6640625" customWidth="1"/>
+    <col min="15" max="15" width="13.44140625" customWidth="1"/>
+    <col min="16" max="16" width="16.21875" customWidth="1"/>
+    <col min="17" max="17" width="26.77734375" customWidth="1"/>
+    <col min="18" max="18" width="27.109375" customWidth="1"/>
     <col min="19" max="19" width="29" customWidth="1"/>
-    <col min="20" max="21" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.875" customWidth="1"/>
+    <col min="20" max="21" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2205,7 +2235,7 @@
       <c r="AD1" s="1"/>
       <c r="AE1" s="1"/>
     </row>
-    <row r="2" spans="1:31" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -2248,7 +2278,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="3" spans="1:31" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="13"/>
       <c r="C3" s="4"/>
@@ -2283,7 +2313,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="4" spans="1:31" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="13"/>
       <c r="C4" s="4"/>
@@ -2318,7 +2348,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="5" spans="1:31" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="13"/>
       <c r="C5" s="4"/>
@@ -2379,7 +2409,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="6" spans="1:31" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="13"/>
       <c r="C6" s="4"/>
@@ -2414,7 +2444,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="7" spans="1:31" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="13"/>
       <c r="C7" s="4"/>
@@ -2449,7 +2479,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="8" spans="1:31" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="13"/>
       <c r="C8" s="4"/>
@@ -2510,7 +2540,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="9" spans="1:31" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="13"/>
       <c r="C9" s="4"/>
@@ -2545,7 +2575,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="10" spans="1:31" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="13"/>
       <c r="C10" s="4"/>
@@ -2580,7 +2610,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="11" spans="1:31" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="13"/>
       <c r="C11" s="4"/>
@@ -2641,7 +2671,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="12" spans="1:31" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:31" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="13"/>
       <c r="C12" s="4"/>
@@ -2702,7 +2732,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="13" spans="1:31" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="13"/>
       <c r="C13" s="4"/>
@@ -2737,7 +2767,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="14" spans="1:31" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:31" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="13"/>
       <c r="C14" s="4"/>
@@ -2798,7 +2828,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="15" spans="1:31" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="13"/>
       <c r="C15" s="4" t="s">
@@ -2837,7 +2867,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="16" spans="1:31" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="13"/>
       <c r="C16" s="4"/>
@@ -2898,7 +2928,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="17" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="13"/>
       <c r="C17" s="4"/>
@@ -2933,7 +2963,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="18" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="13"/>
       <c r="C18" s="4"/>
@@ -2994,7 +3024,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="19" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="13"/>
       <c r="C19" s="4"/>
@@ -3029,7 +3059,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="20" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="13"/>
       <c r="C20" s="4"/>
@@ -3064,7 +3094,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="14"/>
       <c r="C21" s="6" t="s">
@@ -3105,7 +3135,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="14"/>
       <c r="C22" s="6"/>
@@ -3166,7 +3196,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="14"/>
       <c r="C23" s="6"/>
@@ -3227,7 +3257,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="14"/>
       <c r="C24" s="6"/>
@@ -3288,7 +3318,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="14"/>
       <c r="C25" s="6"/>
@@ -3349,7 +3379,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="14"/>
       <c r="C26" s="6"/>
@@ -3410,7 +3440,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="14"/>
       <c r="C27" s="6"/>
@@ -3471,7 +3501,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="28" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>19</v>
       </c>
@@ -3510,7 +3540,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="29" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="13"/>
       <c r="C29" s="4" t="s">
@@ -3547,7 +3577,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="30" spans="1:23" s="32" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" s="32" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="27"/>
       <c r="B30" s="28"/>
       <c r="C30" s="29" t="s">
@@ -3608,7 +3638,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="31" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="13"/>
       <c r="C31" s="4" t="s">
@@ -3643,7 +3673,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="32" spans="1:23" s="32" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" s="32" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="27"/>
       <c r="B32" s="28"/>
       <c r="C32" s="29" t="s">
@@ -3704,7 +3734,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="33" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="13"/>
       <c r="C33" s="4" t="s">
@@ -3739,7 +3769,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="34" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="13"/>
       <c r="C34" s="4" t="s">
@@ -3776,7 +3806,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="35" spans="1:23" s="5" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="13"/>
       <c r="C35" s="4" t="s">
@@ -3811,7 +3841,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="36" spans="1:23" s="32" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23" s="32" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="27"/>
       <c r="B36" s="28"/>
       <c r="C36" s="29" t="s">
@@ -3868,7 +3898,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="37" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="13"/>
       <c r="C37" s="4" t="s">
@@ -3909,7 +3939,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="38" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="13"/>
       <c r="C38" s="4"/>
@@ -3946,7 +3976,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="39" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>29</v>
       </c>
@@ -3987,7 +4017,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="40" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="13"/>
       <c r="C40" s="4" t="s">
@@ -4024,7 +4054,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="41" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="13"/>
       <c r="C41" s="4" t="s">
@@ -4061,7 +4091,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="42" spans="1:23" s="32" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23" s="32" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="27"/>
       <c r="B42" s="28"/>
       <c r="C42" s="29" t="s">
@@ -4122,7 +4152,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="43" spans="1:23" s="32" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23" s="32" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="27"/>
       <c r="B43" s="28"/>
       <c r="C43" s="29" t="s">
@@ -4183,7 +4213,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="44" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="13"/>
       <c r="C44" s="4" t="s">
@@ -4220,7 +4250,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="45" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="13"/>
       <c r="C45" s="4" t="s">
@@ -4257,7 +4287,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="46" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="13"/>
       <c r="C46" s="4" t="s">
@@ -4294,7 +4324,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="47" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="13"/>
       <c r="C47" s="4" t="s">
@@ -4331,7 +4361,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="48" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="13"/>
       <c r="C48" s="4" t="s">
@@ -4372,7 +4402,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="49" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="13"/>
       <c r="C49" s="4"/>
@@ -4409,7 +4439,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="50" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>39</v>
       </c>
@@ -4448,7 +4478,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="51" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="13"/>
       <c r="C51" s="17" t="s">
@@ -4485,7 +4515,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="52" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="13"/>
       <c r="C52" s="4" t="s">
@@ -4522,7 +4552,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="53" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="13"/>
       <c r="C53" s="4" t="s">
@@ -4559,7 +4589,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="54" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="13"/>
       <c r="C54" s="4" t="s">
@@ -4596,7 +4626,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="55" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="13"/>
       <c r="C55" s="4" t="s">
@@ -4633,7 +4663,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="56" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="13"/>
       <c r="C56" s="4" t="s">
@@ -4670,7 +4700,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="57" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="13"/>
       <c r="C57" s="17" t="s">
@@ -4707,7 +4737,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="58" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="13"/>
       <c r="C58" s="4" t="s">
@@ -4742,7 +4772,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="59" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="13"/>
       <c r="C59" s="4" t="s">
@@ -4779,7 +4809,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="60" spans="1:23" s="32" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:23" s="32" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="27"/>
       <c r="B60" s="28"/>
       <c r="C60" s="29" t="s">
@@ -4842,7 +4872,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="61" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="13"/>
       <c r="C61" s="21" t="s">
@@ -4877,7 +4907,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="62" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62" s="13"/>
       <c r="C62" s="21" t="s">
@@ -4914,7 +4944,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="63" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="13"/>
       <c r="C63" s="4" t="s">
@@ -4955,7 +4985,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="64" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" s="13"/>
       <c r="C64" s="4"/>
@@ -4992,7 +5022,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="65" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>129</v>
       </c>
@@ -5033,7 +5063,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="66" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="13"/>
       <c r="C66" s="4" t="s">
@@ -5070,7 +5100,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="67" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="13"/>
       <c r="C67" s="4" t="s">
@@ -5107,7 +5137,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="68" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="13"/>
       <c r="C68" s="4" t="s">
@@ -5144,7 +5174,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="69" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="13"/>
       <c r="C69" s="4" t="s">
@@ -5181,7 +5211,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="70" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="13"/>
       <c r="C70" s="12" t="s">
@@ -5224,7 +5254,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="71" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="13"/>
       <c r="C71" s="4" t="s">
@@ -5263,7 +5293,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="72" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="13"/>
       <c r="C72" s="4" t="s">
@@ -5302,7 +5332,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="73" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="13"/>
       <c r="C73" s="12" t="s">
@@ -5341,7 +5371,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="74" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="13"/>
       <c r="C74" s="12" t="s">
@@ -5384,7 +5414,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="75" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="13"/>
       <c r="C75" s="4" t="s">
@@ -5427,7 +5457,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="76" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="13"/>
       <c r="C76" s="4"/>
@@ -5466,7 +5496,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="77" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="13"/>
       <c r="C77" s="4" t="s">
@@ -5511,7 +5541,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="78" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="13"/>
       <c r="C78" s="4"/>
@@ -5552,7 +5582,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="79" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="13"/>
       <c r="C79" s="4"/>
@@ -5593,7 +5623,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="80" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="13"/>
       <c r="C80" s="4"/>
@@ -5634,7 +5664,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="81" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81" s="13"/>
       <c r="C81" s="4"/>
@@ -5675,7 +5705,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="82" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82" s="13"/>
       <c r="C82" s="4"/>
@@ -5716,7 +5746,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="83" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="13"/>
       <c r="C83" s="4"/>
@@ -5757,7 +5787,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="84" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" s="13"/>
       <c r="C84" s="4"/>
@@ -5798,7 +5828,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="85" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" s="13"/>
       <c r="C85" s="4"/>
@@ -5839,7 +5869,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="86" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="13"/>
       <c r="C86" s="4"/>
@@ -5882,7 +5912,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="87" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" s="13"/>
       <c r="C87" s="4" t="s">
@@ -5923,7 +5953,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="88" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" s="13"/>
       <c r="C88" s="4"/>
@@ -5960,7 +5990,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="89" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" s="13"/>
       <c r="C89" s="4"/>
@@ -5997,7 +6027,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="90" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" s="13"/>
       <c r="C90" s="4"/>
@@ -6036,7 +6066,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="91" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" s="13"/>
       <c r="C91" s="4"/>
@@ -6075,7 +6105,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="92" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="13"/>
       <c r="C92" s="4"/>
@@ -6114,7 +6144,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="93" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="B93" s="13"/>
       <c r="C93" s="4"/>
@@ -6151,7 +6181,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="94" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>130</v>
       </c>
@@ -6196,7 +6226,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="95" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95" s="13"/>
       <c r="C95" s="4"/>
@@ -6233,7 +6263,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="96" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96" s="13"/>
       <c r="C96" s="4"/>
@@ -6270,7 +6300,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="97" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97" s="13"/>
       <c r="C97" s="4"/>
@@ -6307,7 +6337,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="98" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98" s="13"/>
       <c r="C98" s="4"/>
@@ -6344,7 +6374,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="99" spans="1:23" s="32" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:23" s="32" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="27"/>
       <c r="B99" s="28"/>
       <c r="C99" s="29"/>
@@ -6399,7 +6429,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="100" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
       <c r="B100" s="13"/>
       <c r="C100" s="4"/>
@@ -6436,7 +6466,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="101" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
       <c r="B101" s="13"/>
       <c r="C101" s="4"/>
@@ -6473,7 +6503,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="102" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
       <c r="B102" s="13"/>
       <c r="C102" s="4"/>
@@ -6510,7 +6540,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="103" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" s="13"/>
       <c r="C103" s="4"/>
@@ -6547,7 +6577,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="104" spans="1:23" s="32" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:23" s="32" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="27"/>
       <c r="B104" s="28"/>
       <c r="C104" s="29"/>
@@ -6602,7 +6632,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="105" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="13"/>
       <c r="C105" s="4"/>
@@ -6637,7 +6667,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="106" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="13"/>
       <c r="C106" s="4"/>
@@ -6674,7 +6704,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="107" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
       <c r="B107" s="13"/>
       <c r="C107" s="4"/>
@@ -6711,7 +6741,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="108" spans="1:23" s="5" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:23" s="5" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="13"/>
       <c r="C108" s="7" t="s">
@@ -6754,7 +6784,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="109" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
       <c r="B109" s="13"/>
       <c r="C109" s="4"/>
@@ -6793,7 +6823,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="110" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
       <c r="B110" s="13"/>
       <c r="C110" s="4"/>
@@ -6832,7 +6862,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="111" spans="1:23" s="32" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:23" s="32" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="27"/>
       <c r="B111" s="28"/>
       <c r="C111" s="29" t="s">
@@ -6891,7 +6921,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="112" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
       <c r="B112" s="13"/>
       <c r="C112" s="4"/>
@@ -6930,7 +6960,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="113" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
       <c r="B113" s="13"/>
       <c r="C113" s="4"/>
@@ -6969,7 +6999,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="114" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
       <c r="B114" s="13"/>
       <c r="C114" s="4"/>
@@ -7008,7 +7038,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="115" spans="1:23" s="32" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:23" s="32" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="27"/>
       <c r="B115" s="28"/>
       <c r="C115" s="29"/>
@@ -7063,7 +7093,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="116" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
       <c r="B116" s="13"/>
       <c r="C116" s="4"/>
@@ -7102,7 +7132,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="117" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
       <c r="B117" s="13"/>
       <c r="C117" s="4"/>
@@ -7141,7 +7171,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="118" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
       <c r="B118" s="13"/>
       <c r="C118" s="4"/>
@@ -7180,61 +7210,57 @@
         <v>329</v>
       </c>
     </row>
-    <row r="119" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B119" s="13" t="s">
-        <v>266</v>
-      </c>
+    <row r="119" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="3"/>
+      <c r="B119" s="13"/>
       <c r="C119" s="4" t="s">
-        <v>147</v>
+        <v>346</v>
       </c>
       <c r="D119" s="13" t="s">
-        <v>267</v>
+        <v>347</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>109</v>
+        <v>351</v>
       </c>
       <c r="F119" s="13" t="s">
-        <v>268</v>
+        <v>348</v>
       </c>
       <c r="G119" s="4"/>
-      <c r="H119" s="23"/>
-      <c r="I119" s="23"/>
-      <c r="J119" s="23"/>
-      <c r="K119" s="23"/>
-      <c r="L119" s="23"/>
-      <c r="M119" s="23"/>
-      <c r="N119" s="23"/>
-      <c r="O119" s="23"/>
-      <c r="P119" s="4"/>
-      <c r="Q119" s="4"/>
-      <c r="R119" s="23" t="s">
-        <v>329</v>
-      </c>
-      <c r="S119" s="23" t="s">
-        <v>329</v>
-      </c>
+      <c r="H119" s="4"/>
+      <c r="I119" s="4"/>
+      <c r="J119" s="4"/>
+      <c r="K119" s="4"/>
+      <c r="L119" s="4"/>
+      <c r="M119" s="4"/>
+      <c r="N119" s="4"/>
+      <c r="O119" s="4"/>
+      <c r="P119" s="23" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q119" s="23" t="s">
+        <v>329</v>
+      </c>
+      <c r="R119" s="4"/>
+      <c r="S119" s="4"/>
       <c r="T119" s="4"/>
-      <c r="U119" s="4"/>
+      <c r="U119" s="23"/>
       <c r="V119" s="23" t="s">
         <v>329</v>
       </c>
-      <c r="W119" s="26" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="120" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W119" s="23" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="120" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
       <c r="B120" s="13"/>
       <c r="C120" s="4"/>
       <c r="D120" s="13"/>
       <c r="E120" s="4" t="s">
-        <v>110</v>
+        <v>350</v>
       </c>
       <c r="F120" s="13" t="s">
-        <v>270</v>
+        <v>349</v>
       </c>
       <c r="G120" s="4"/>
       <c r="H120" s="4"/>
@@ -7245,41 +7271,51 @@
       <c r="M120" s="4"/>
       <c r="N120" s="4"/>
       <c r="O120" s="4"/>
-      <c r="P120" s="4"/>
-      <c r="Q120" s="4"/>
-      <c r="R120" s="23" t="s">
-        <v>329</v>
-      </c>
-      <c r="S120" s="23"/>
+      <c r="P120" s="23" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q120" s="23" t="s">
+        <v>329</v>
+      </c>
+      <c r="R120" s="4"/>
+      <c r="S120" s="4"/>
       <c r="T120" s="4"/>
-      <c r="U120" s="4"/>
+      <c r="U120" s="23"/>
       <c r="V120" s="23" t="s">
         <v>329</v>
       </c>
-      <c r="W120" s="26" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="121" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="3"/>
-      <c r="B121" s="13"/>
-      <c r="C121" s="4"/>
-      <c r="D121" s="13"/>
+      <c r="W120" s="23" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="121" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B121" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D121" s="13" t="s">
+        <v>267</v>
+      </c>
       <c r="E121" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F121" s="13" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G121" s="4"/>
-      <c r="H121" s="4"/>
-      <c r="I121" s="4"/>
-      <c r="J121" s="4"/>
-      <c r="K121" s="4"/>
-      <c r="L121" s="4"/>
-      <c r="M121" s="4"/>
-      <c r="N121" s="4"/>
-      <c r="O121" s="4"/>
+      <c r="H121" s="23"/>
+      <c r="I121" s="23"/>
+      <c r="J121" s="23"/>
+      <c r="K121" s="23"/>
+      <c r="L121" s="23"/>
+      <c r="M121" s="23"/>
+      <c r="N121" s="23"/>
+      <c r="O121" s="23"/>
       <c r="P121" s="4"/>
       <c r="Q121" s="4"/>
       <c r="R121" s="23" t="s">
@@ -7297,16 +7333,16 @@
         <v>329</v>
       </c>
     </row>
-    <row r="122" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
       <c r="B122" s="13"/>
       <c r="C122" s="4"/>
       <c r="D122" s="13"/>
       <c r="E122" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F122" s="13" t="s">
-        <v>327</v>
+        <v>270</v>
       </c>
       <c r="G122" s="4"/>
       <c r="H122" s="4"/>
@@ -7332,16 +7368,16 @@
         <v>329</v>
       </c>
     </row>
-    <row r="123" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
       <c r="B123" s="13"/>
       <c r="C123" s="4"/>
       <c r="D123" s="13"/>
       <c r="E123" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F123" s="13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G123" s="4"/>
       <c r="H123" s="4"/>
@@ -7369,16 +7405,16 @@
         <v>329</v>
       </c>
     </row>
-    <row r="124" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
       <c r="B124" s="13"/>
       <c r="C124" s="4"/>
       <c r="D124" s="13"/>
       <c r="E124" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F124" s="13" t="s">
-        <v>273</v>
+        <v>327</v>
       </c>
       <c r="G124" s="4"/>
       <c r="H124" s="4"/>
@@ -7394,9 +7430,7 @@
       <c r="R124" s="23" t="s">
         <v>329</v>
       </c>
-      <c r="S124" s="23" t="s">
-        <v>329</v>
-      </c>
+      <c r="S124" s="23"/>
       <c r="T124" s="4"/>
       <c r="U124" s="4"/>
       <c r="V124" s="23" t="s">
@@ -7406,79 +7440,53 @@
         <v>329</v>
       </c>
     </row>
-    <row r="125" spans="1:23" s="32" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="27"/>
-      <c r="B125" s="28"/>
-      <c r="C125" s="29"/>
-      <c r="D125" s="28"/>
-      <c r="E125" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="F125" s="28" t="s">
-        <v>274</v>
-      </c>
-      <c r="G125" s="30" t="s">
-        <v>329</v>
-      </c>
-      <c r="H125" s="30" t="s">
-        <v>329</v>
-      </c>
-      <c r="I125" s="30" t="s">
-        <v>329</v>
-      </c>
-      <c r="J125" s="30" t="s">
-        <v>329</v>
-      </c>
-      <c r="K125" s="30" t="s">
-        <v>329</v>
-      </c>
-      <c r="L125" s="30" t="s">
-        <v>329</v>
-      </c>
-      <c r="M125" s="30" t="s">
-        <v>329</v>
-      </c>
-      <c r="N125" s="30" t="s">
-        <v>329</v>
-      </c>
-      <c r="O125" s="30" t="s">
-        <v>329</v>
-      </c>
-      <c r="P125" s="30" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q125" s="30" t="s">
-        <v>329</v>
-      </c>
-      <c r="R125" s="30" t="s">
-        <v>329</v>
-      </c>
-      <c r="S125" s="30" t="s">
-        <v>329</v>
-      </c>
-      <c r="T125" s="30" t="s">
-        <v>329</v>
-      </c>
-      <c r="U125" s="30" t="s">
-        <v>329</v>
-      </c>
-      <c r="V125" s="30" t="s">
-        <v>329</v>
-      </c>
-      <c r="W125" s="31" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="126" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="3"/>
+      <c r="B125" s="13"/>
+      <c r="C125" s="4"/>
+      <c r="D125" s="13"/>
+      <c r="E125" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F125" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="G125" s="4"/>
+      <c r="H125" s="4"/>
+      <c r="I125" s="4"/>
+      <c r="J125" s="4"/>
+      <c r="K125" s="4"/>
+      <c r="L125" s="4"/>
+      <c r="M125" s="4"/>
+      <c r="N125" s="4"/>
+      <c r="O125" s="4"/>
+      <c r="P125" s="4"/>
+      <c r="Q125" s="4"/>
+      <c r="R125" s="23" t="s">
+        <v>329</v>
+      </c>
+      <c r="S125" s="23" t="s">
+        <v>329</v>
+      </c>
+      <c r="T125" s="4"/>
+      <c r="U125" s="4"/>
+      <c r="V125" s="23" t="s">
+        <v>329</v>
+      </c>
+      <c r="W125" s="26" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="126" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
       <c r="B126" s="13"/>
       <c r="C126" s="4"/>
       <c r="D126" s="13"/>
       <c r="E126" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F126" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G126" s="4"/>
       <c r="H126" s="4"/>
@@ -7506,53 +7514,79 @@
         <v>329</v>
       </c>
     </row>
-    <row r="127" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="3"/>
-      <c r="B127" s="13"/>
-      <c r="C127" s="4"/>
-      <c r="D127" s="13"/>
-      <c r="E127" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="F127" s="13" t="s">
-        <v>276</v>
-      </c>
-      <c r="G127" s="4"/>
-      <c r="H127" s="4"/>
-      <c r="I127" s="4"/>
-      <c r="J127" s="4"/>
-      <c r="K127" s="4"/>
-      <c r="L127" s="4"/>
-      <c r="M127" s="4"/>
-      <c r="N127" s="4"/>
-      <c r="O127" s="4"/>
-      <c r="P127" s="4"/>
-      <c r="Q127" s="4"/>
-      <c r="R127" s="23" t="s">
-        <v>329</v>
-      </c>
-      <c r="S127" s="23" t="s">
-        <v>329</v>
-      </c>
-      <c r="T127" s="4"/>
-      <c r="U127" s="4"/>
-      <c r="V127" s="23" t="s">
-        <v>329</v>
-      </c>
-      <c r="W127" s="26" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="128" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:23" s="32" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="27"/>
+      <c r="B127" s="28"/>
+      <c r="C127" s="29"/>
+      <c r="D127" s="28"/>
+      <c r="E127" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="F127" s="28" t="s">
+        <v>274</v>
+      </c>
+      <c r="G127" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="H127" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="I127" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="J127" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="K127" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="L127" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="M127" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="N127" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="O127" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="P127" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q127" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="R127" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="S127" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="T127" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="U127" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="V127" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="W127" s="31" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="128" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
       <c r="B128" s="13"/>
       <c r="C128" s="4"/>
       <c r="D128" s="13"/>
       <c r="E128" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F128" s="13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G128" s="4"/>
       <c r="H128" s="4"/>
@@ -7580,16 +7614,16 @@
         <v>329</v>
       </c>
     </row>
-    <row r="129" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
       <c r="B129" s="13"/>
       <c r="C129" s="4"/>
       <c r="D129" s="13"/>
-      <c r="E129" s="12" t="s">
-        <v>120</v>
+      <c r="E129" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="F129" s="13" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G129" s="4"/>
       <c r="H129" s="4"/>
@@ -7617,20 +7651,16 @@
         <v>329</v>
       </c>
     </row>
-    <row r="130" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3"/>
       <c r="B130" s="13"/>
-      <c r="C130" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="D130" s="13" t="s">
-        <v>279</v>
-      </c>
-      <c r="E130" s="21" t="s">
-        <v>51</v>
+      <c r="C130" s="4"/>
+      <c r="D130" s="13"/>
+      <c r="E130" s="4" t="s">
+        <v>118</v>
       </c>
       <c r="F130" s="13" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G130" s="4"/>
       <c r="H130" s="4"/>
@@ -7646,7 +7676,9 @@
       <c r="R130" s="23" t="s">
         <v>329</v>
       </c>
-      <c r="S130" s="23"/>
+      <c r="S130" s="23" t="s">
+        <v>329</v>
+      </c>
       <c r="T130" s="4"/>
       <c r="U130" s="4"/>
       <c r="V130" s="23" t="s">
@@ -7656,79 +7688,57 @@
         <v>329</v>
       </c>
     </row>
-    <row r="131" spans="1:23" s="32" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="27"/>
-      <c r="B131" s="28"/>
-      <c r="C131" s="29"/>
-      <c r="D131" s="28"/>
-      <c r="E131" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="F131" s="28" t="s">
-        <v>281</v>
-      </c>
-      <c r="G131" s="30" t="s">
-        <v>329</v>
-      </c>
-      <c r="H131" s="30" t="s">
-        <v>329</v>
-      </c>
-      <c r="I131" s="30" t="s">
-        <v>329</v>
-      </c>
-      <c r="J131" s="30" t="s">
-        <v>329</v>
-      </c>
-      <c r="K131" s="30" t="s">
-        <v>329</v>
-      </c>
-      <c r="L131" s="30" t="s">
-        <v>329</v>
-      </c>
-      <c r="M131" s="30" t="s">
-        <v>329</v>
-      </c>
-      <c r="N131" s="30" t="s">
-        <v>329</v>
-      </c>
-      <c r="O131" s="30" t="s">
-        <v>329</v>
-      </c>
-      <c r="P131" s="30" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q131" s="30" t="s">
-        <v>329</v>
-      </c>
-      <c r="R131" s="30" t="s">
-        <v>329</v>
-      </c>
-      <c r="S131" s="30" t="s">
-        <v>329</v>
-      </c>
-      <c r="T131" s="30" t="s">
-        <v>329</v>
-      </c>
-      <c r="U131" s="30" t="s">
-        <v>329</v>
-      </c>
-      <c r="V131" s="30" t="s">
-        <v>329</v>
-      </c>
-      <c r="W131" s="31" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="132" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="3"/>
+      <c r="B131" s="13"/>
+      <c r="C131" s="4"/>
+      <c r="D131" s="13"/>
+      <c r="E131" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="F131" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="G131" s="4"/>
+      <c r="H131" s="4"/>
+      <c r="I131" s="4"/>
+      <c r="J131" s="4"/>
+      <c r="K131" s="4"/>
+      <c r="L131" s="4"/>
+      <c r="M131" s="4"/>
+      <c r="N131" s="4"/>
+      <c r="O131" s="4"/>
+      <c r="P131" s="4"/>
+      <c r="Q131" s="4"/>
+      <c r="R131" s="23" t="s">
+        <v>329</v>
+      </c>
+      <c r="S131" s="23" t="s">
+        <v>329</v>
+      </c>
+      <c r="T131" s="4"/>
+      <c r="U131" s="4"/>
+      <c r="V131" s="23" t="s">
+        <v>329</v>
+      </c>
+      <c r="W131" s="26" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="132" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
       <c r="B132" s="13"/>
-      <c r="C132" s="4"/>
-      <c r="D132" s="13"/>
-      <c r="E132" s="4" t="s">
-        <v>107</v>
+      <c r="C132" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D132" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="E132" s="21" t="s">
+        <v>51</v>
       </c>
       <c r="F132" s="13" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G132" s="4"/>
       <c r="H132" s="4"/>
@@ -7744,9 +7754,7 @@
       <c r="R132" s="23" t="s">
         <v>329</v>
       </c>
-      <c r="S132" s="23" t="s">
-        <v>329</v>
-      </c>
+      <c r="S132" s="23"/>
       <c r="T132" s="4"/>
       <c r="U132" s="4"/>
       <c r="V132" s="23" t="s">
@@ -7756,53 +7764,79 @@
         <v>329</v>
       </c>
     </row>
-    <row r="133" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="3"/>
-      <c r="B133" s="13"/>
-      <c r="C133" s="4"/>
-      <c r="D133" s="13"/>
-      <c r="E133" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F133" s="13" t="s">
-        <v>283</v>
-      </c>
-      <c r="G133" s="4"/>
-      <c r="H133" s="4"/>
-      <c r="I133" s="4"/>
-      <c r="J133" s="4"/>
-      <c r="K133" s="4"/>
-      <c r="L133" s="4"/>
-      <c r="M133" s="4"/>
-      <c r="N133" s="4"/>
-      <c r="O133" s="4"/>
-      <c r="P133" s="4"/>
-      <c r="Q133" s="4"/>
-      <c r="R133" s="23" t="s">
-        <v>329</v>
-      </c>
-      <c r="S133" s="23" t="s">
-        <v>329</v>
-      </c>
-      <c r="T133" s="4"/>
-      <c r="U133" s="4"/>
-      <c r="V133" s="23" t="s">
-        <v>329</v>
-      </c>
-      <c r="W133" s="26" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="134" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:23" s="32" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="27"/>
+      <c r="B133" s="28"/>
+      <c r="C133" s="29"/>
+      <c r="D133" s="28"/>
+      <c r="E133" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="F133" s="28" t="s">
+        <v>281</v>
+      </c>
+      <c r="G133" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="H133" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="I133" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="J133" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="K133" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="L133" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="M133" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="N133" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="O133" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="P133" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q133" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="R133" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="S133" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="T133" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="U133" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="V133" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="W133" s="31" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="134" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3"/>
       <c r="B134" s="13"/>
       <c r="C134" s="4"/>
       <c r="D134" s="13"/>
       <c r="E134" s="4" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="F134" s="13" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G134" s="4"/>
       <c r="H134" s="4"/>
@@ -7830,16 +7864,16 @@
         <v>329</v>
       </c>
     </row>
-    <row r="135" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3"/>
       <c r="B135" s="13"/>
       <c r="C135" s="4"/>
       <c r="D135" s="13"/>
       <c r="E135" s="4" t="s">
-        <v>328</v>
+        <v>108</v>
       </c>
       <c r="F135" s="13" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G135" s="4"/>
       <c r="H135" s="4"/>
@@ -7867,16 +7901,16 @@
         <v>329</v>
       </c>
     </row>
-    <row r="136" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3"/>
       <c r="B136" s="13"/>
       <c r="C136" s="4"/>
       <c r="D136" s="13"/>
       <c r="E136" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F136" s="13" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G136" s="4"/>
       <c r="H136" s="4"/>
@@ -7904,16 +7938,16 @@
         <v>329</v>
       </c>
     </row>
-    <row r="137" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3"/>
       <c r="B137" s="13"/>
       <c r="C137" s="4"/>
       <c r="D137" s="13"/>
       <c r="E137" s="4" t="s">
-        <v>122</v>
+        <v>328</v>
       </c>
       <c r="F137" s="13" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G137" s="4"/>
       <c r="H137" s="4"/>
@@ -7941,16 +7975,16 @@
         <v>329</v>
       </c>
     </row>
-    <row r="138" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3"/>
       <c r="B138" s="13"/>
       <c r="C138" s="4"/>
       <c r="D138" s="13"/>
       <c r="E138" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F138" s="13" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G138" s="4"/>
       <c r="H138" s="4"/>
@@ -7978,16 +8012,16 @@
         <v>329</v>
       </c>
     </row>
-    <row r="139" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3"/>
       <c r="B139" s="13"/>
       <c r="C139" s="4"/>
       <c r="D139" s="13"/>
       <c r="E139" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F139" s="13" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G139" s="4"/>
       <c r="H139" s="4"/>
@@ -8015,20 +8049,16 @@
         <v>329</v>
       </c>
     </row>
-    <row r="140" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3"/>
       <c r="B140" s="13"/>
-      <c r="C140" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D140" s="13" t="s">
-        <v>269</v>
-      </c>
+      <c r="C140" s="4"/>
+      <c r="D140" s="13"/>
       <c r="E140" s="4" t="s">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="F140" s="13" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G140" s="4"/>
       <c r="H140" s="4"/>
@@ -8056,79 +8086,57 @@
         <v>329</v>
       </c>
     </row>
-    <row r="141" spans="1:23" s="32" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="27"/>
-      <c r="B141" s="28"/>
-      <c r="C141" s="29"/>
-      <c r="D141" s="28"/>
-      <c r="E141" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="F141" s="28" t="s">
-        <v>291</v>
-      </c>
-      <c r="G141" s="30" t="s">
-        <v>329</v>
-      </c>
-      <c r="H141" s="30" t="s">
-        <v>329</v>
-      </c>
-      <c r="I141" s="30" t="s">
-        <v>329</v>
-      </c>
-      <c r="J141" s="30" t="s">
-        <v>329</v>
-      </c>
-      <c r="K141" s="30" t="s">
-        <v>329</v>
-      </c>
-      <c r="L141" s="30" t="s">
-        <v>329</v>
-      </c>
-      <c r="M141" s="30" t="s">
-        <v>329</v>
-      </c>
-      <c r="N141" s="30" t="s">
-        <v>329</v>
-      </c>
-      <c r="O141" s="30" t="s">
-        <v>329</v>
-      </c>
-      <c r="P141" s="30" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q141" s="30" t="s">
-        <v>329</v>
-      </c>
-      <c r="R141" s="30" t="s">
-        <v>329</v>
-      </c>
-      <c r="S141" s="30" t="s">
-        <v>329</v>
-      </c>
-      <c r="T141" s="30" t="s">
-        <v>329</v>
-      </c>
-      <c r="U141" s="30" t="s">
-        <v>329</v>
-      </c>
-      <c r="V141" s="30" t="s">
-        <v>329</v>
-      </c>
-      <c r="W141" s="31" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="142" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="3"/>
+      <c r="B141" s="13"/>
+      <c r="C141" s="4"/>
+      <c r="D141" s="13"/>
+      <c r="E141" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F141" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="G141" s="4"/>
+      <c r="H141" s="4"/>
+      <c r="I141" s="4"/>
+      <c r="J141" s="4"/>
+      <c r="K141" s="4"/>
+      <c r="L141" s="4"/>
+      <c r="M141" s="4"/>
+      <c r="N141" s="4"/>
+      <c r="O141" s="4"/>
+      <c r="P141" s="4"/>
+      <c r="Q141" s="4"/>
+      <c r="R141" s="23" t="s">
+        <v>329</v>
+      </c>
+      <c r="S141" s="23" t="s">
+        <v>329</v>
+      </c>
+      <c r="T141" s="4"/>
+      <c r="U141" s="4"/>
+      <c r="V141" s="23" t="s">
+        <v>329</v>
+      </c>
+      <c r="W141" s="26" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="142" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3"/>
       <c r="B142" s="13"/>
-      <c r="C142" s="4"/>
-      <c r="D142" s="13"/>
+      <c r="C142" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D142" s="13" t="s">
+        <v>269</v>
+      </c>
       <c r="E142" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F142" s="13" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G142" s="4"/>
       <c r="H142" s="4"/>
@@ -8144,7 +8152,9 @@
       <c r="R142" s="23" t="s">
         <v>329</v>
       </c>
-      <c r="S142" s="23"/>
+      <c r="S142" s="23" t="s">
+        <v>329</v>
+      </c>
       <c r="T142" s="4"/>
       <c r="U142" s="4"/>
       <c r="V142" s="23" t="s">
@@ -8154,51 +8164,79 @@
         <v>329</v>
       </c>
     </row>
-    <row r="143" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="3"/>
-      <c r="B143" s="13"/>
-      <c r="C143" s="4"/>
-      <c r="D143" s="13"/>
-      <c r="E143" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F143" s="13" t="s">
-        <v>293</v>
-      </c>
-      <c r="G143" s="4"/>
-      <c r="H143" s="4"/>
-      <c r="I143" s="4"/>
-      <c r="J143" s="4"/>
-      <c r="K143" s="4"/>
-      <c r="L143" s="4"/>
-      <c r="M143" s="4"/>
-      <c r="N143" s="4"/>
-      <c r="O143" s="4"/>
-      <c r="P143" s="4"/>
-      <c r="Q143" s="4"/>
-      <c r="R143" s="23" t="s">
-        <v>329</v>
-      </c>
-      <c r="S143" s="23"/>
-      <c r="T143" s="4"/>
-      <c r="U143" s="4"/>
-      <c r="V143" s="23" t="s">
-        <v>329</v>
-      </c>
-      <c r="W143" s="26" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="144" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:23" s="32" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="27"/>
+      <c r="B143" s="28"/>
+      <c r="C143" s="29"/>
+      <c r="D143" s="28"/>
+      <c r="E143" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="F143" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="G143" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="H143" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="I143" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="J143" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="K143" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="L143" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="M143" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="N143" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="O143" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="P143" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q143" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="R143" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="S143" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="T143" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="U143" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="V143" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="W143" s="31" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="144" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="3"/>
       <c r="B144" s="13"/>
       <c r="C144" s="4"/>
       <c r="D144" s="13"/>
       <c r="E144" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F144" s="13" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G144" s="4"/>
       <c r="H144" s="4"/>
@@ -8214,9 +8252,7 @@
       <c r="R144" s="23" t="s">
         <v>329</v>
       </c>
-      <c r="S144" s="23" t="s">
-        <v>329</v>
-      </c>
+      <c r="S144" s="23"/>
       <c r="T144" s="4"/>
       <c r="U144" s="4"/>
       <c r="V144" s="23" t="s">
@@ -8226,194 +8262,266 @@
         <v>329</v>
       </c>
     </row>
-    <row r="145" spans="1:23" s="32" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="27" t="s">
+    <row r="145" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="3"/>
+      <c r="B145" s="13"/>
+      <c r="C145" s="4"/>
+      <c r="D145" s="13"/>
+      <c r="E145" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F145" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="G145" s="4"/>
+      <c r="H145" s="4"/>
+      <c r="I145" s="4"/>
+      <c r="J145" s="4"/>
+      <c r="K145" s="4"/>
+      <c r="L145" s="4"/>
+      <c r="M145" s="4"/>
+      <c r="N145" s="4"/>
+      <c r="O145" s="4"/>
+      <c r="P145" s="4"/>
+      <c r="Q145" s="4"/>
+      <c r="R145" s="23" t="s">
+        <v>329</v>
+      </c>
+      <c r="S145" s="23"/>
+      <c r="T145" s="4"/>
+      <c r="U145" s="4"/>
+      <c r="V145" s="23" t="s">
+        <v>329</v>
+      </c>
+      <c r="W145" s="26" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="146" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="3"/>
+      <c r="B146" s="13"/>
+      <c r="C146" s="4"/>
+      <c r="D146" s="13"/>
+      <c r="E146" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F146" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="G146" s="4"/>
+      <c r="H146" s="4"/>
+      <c r="I146" s="4"/>
+      <c r="J146" s="4"/>
+      <c r="K146" s="4"/>
+      <c r="L146" s="4"/>
+      <c r="M146" s="4"/>
+      <c r="N146" s="4"/>
+      <c r="O146" s="4"/>
+      <c r="P146" s="4"/>
+      <c r="Q146" s="4"/>
+      <c r="R146" s="23" t="s">
+        <v>329</v>
+      </c>
+      <c r="S146" s="23" t="s">
+        <v>329</v>
+      </c>
+      <c r="T146" s="4"/>
+      <c r="U146" s="4"/>
+      <c r="V146" s="23" t="s">
+        <v>329</v>
+      </c>
+      <c r="W146" s="26" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="147" spans="1:23" s="32" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="B145" s="28"/>
-      <c r="C145" s="29"/>
-      <c r="D145" s="28"/>
-      <c r="E145" s="29"/>
-      <c r="F145" s="28"/>
-      <c r="G145" s="30" t="s">
-        <v>329</v>
-      </c>
-      <c r="H145" s="30" t="s">
-        <v>329</v>
-      </c>
-      <c r="I145" s="30" t="s">
-        <v>329</v>
-      </c>
-      <c r="J145" s="30" t="s">
-        <v>329</v>
-      </c>
-      <c r="K145" s="30" t="s">
-        <v>329</v>
-      </c>
-      <c r="L145" s="30" t="s">
-        <v>329</v>
-      </c>
-      <c r="M145" s="30" t="s">
-        <v>329</v>
-      </c>
-      <c r="N145" s="30" t="s">
-        <v>329</v>
-      </c>
-      <c r="O145" s="30" t="s">
-        <v>329</v>
-      </c>
-      <c r="P145" s="30" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q145" s="30" t="s">
-        <v>329</v>
-      </c>
-      <c r="R145" s="30" t="s">
-        <v>329</v>
-      </c>
-      <c r="S145" s="30" t="s">
-        <v>329</v>
-      </c>
-      <c r="T145" s="30" t="s">
-        <v>329</v>
-      </c>
-      <c r="U145" s="30" t="s">
-        <v>329</v>
-      </c>
-      <c r="V145" s="30" t="s">
-        <v>329</v>
-      </c>
-      <c r="W145" s="31" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="146" spans="1:23" s="32" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="27" t="s">
+      <c r="B147" s="28"/>
+      <c r="C147" s="29"/>
+      <c r="D147" s="28"/>
+      <c r="E147" s="29"/>
+      <c r="F147" s="28"/>
+      <c r="G147" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="H147" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="I147" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="J147" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="K147" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="L147" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="M147" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="N147" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="O147" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="P147" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q147" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="R147" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="S147" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="T147" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="U147" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="V147" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="W147" s="31" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="148" spans="1:23" s="32" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="B146" s="28" t="s">
+      <c r="B148" s="28" t="s">
         <v>295</v>
       </c>
-      <c r="C146" s="29" t="s">
+      <c r="C148" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="D146" s="28" t="s">
+      <c r="D148" s="28" t="s">
         <v>296</v>
       </c>
-      <c r="E146" s="29"/>
-      <c r="F146" s="28"/>
-      <c r="G146" s="30" t="s">
-        <v>329</v>
-      </c>
-      <c r="H146" s="30" t="s">
-        <v>329</v>
-      </c>
-      <c r="I146" s="30" t="s">
-        <v>329</v>
-      </c>
-      <c r="J146" s="30" t="s">
-        <v>329</v>
-      </c>
-      <c r="K146" s="30" t="s">
-        <v>329</v>
-      </c>
-      <c r="L146" s="30" t="s">
-        <v>329</v>
-      </c>
-      <c r="M146" s="30" t="s">
-        <v>329</v>
-      </c>
-      <c r="N146" s="30" t="s">
-        <v>329</v>
-      </c>
-      <c r="O146" s="30" t="s">
-        <v>329</v>
-      </c>
-      <c r="P146" s="30" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q146" s="30" t="s">
-        <v>329</v>
-      </c>
-      <c r="R146" s="30" t="s">
-        <v>329</v>
-      </c>
-      <c r="S146" s="30" t="s">
-        <v>329</v>
-      </c>
-      <c r="T146" s="30" t="s">
-        <v>329</v>
-      </c>
-      <c r="U146" s="30" t="s">
-        <v>329</v>
-      </c>
-      <c r="V146" s="30" t="s">
-        <v>329</v>
-      </c>
-      <c r="W146" s="31" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="147" spans="1:23" s="32" customFormat="1" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="33"/>
-      <c r="B147" s="34"/>
-      <c r="C147" s="35" t="s">
+      <c r="E148" s="29"/>
+      <c r="F148" s="28"/>
+      <c r="G148" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="H148" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="I148" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="J148" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="K148" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="L148" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="M148" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="N148" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="O148" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="P148" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q148" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="R148" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="S148" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="T148" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="U148" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="V148" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="W148" s="31" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="149" spans="1:23" s="32" customFormat="1" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="33"/>
+      <c r="B149" s="34"/>
+      <c r="C149" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="D147" s="34" t="s">
+      <c r="D149" s="34" t="s">
         <v>297</v>
       </c>
-      <c r="E147" s="35"/>
-      <c r="F147" s="34"/>
-      <c r="G147" s="36" t="s">
-        <v>329</v>
-      </c>
-      <c r="H147" s="36" t="s">
-        <v>329</v>
-      </c>
-      <c r="I147" s="36" t="s">
-        <v>329</v>
-      </c>
-      <c r="J147" s="36" t="s">
-        <v>329</v>
-      </c>
-      <c r="K147" s="36" t="s">
-        <v>329</v>
-      </c>
-      <c r="L147" s="36" t="s">
-        <v>329</v>
-      </c>
-      <c r="M147" s="36" t="s">
-        <v>329</v>
-      </c>
-      <c r="N147" s="36" t="s">
-        <v>329</v>
-      </c>
-      <c r="O147" s="36" t="s">
-        <v>329</v>
-      </c>
-      <c r="P147" s="36" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q147" s="36" t="s">
-        <v>329</v>
-      </c>
-      <c r="R147" s="36" t="s">
-        <v>329</v>
-      </c>
-      <c r="S147" s="36" t="s">
-        <v>329</v>
-      </c>
-      <c r="T147" s="36" t="s">
-        <v>329</v>
-      </c>
-      <c r="U147" s="36" t="s">
-        <v>329</v>
-      </c>
-      <c r="V147" s="36" t="s">
-        <v>329</v>
-      </c>
-      <c r="W147" s="37" t="s">
+      <c r="E149" s="35"/>
+      <c r="F149" s="34"/>
+      <c r="G149" s="36" t="s">
+        <v>329</v>
+      </c>
+      <c r="H149" s="36" t="s">
+        <v>329</v>
+      </c>
+      <c r="I149" s="36" t="s">
+        <v>329</v>
+      </c>
+      <c r="J149" s="36" t="s">
+        <v>329</v>
+      </c>
+      <c r="K149" s="36" t="s">
+        <v>329</v>
+      </c>
+      <c r="L149" s="36" t="s">
+        <v>329</v>
+      </c>
+      <c r="M149" s="36" t="s">
+        <v>329</v>
+      </c>
+      <c r="N149" s="36" t="s">
+        <v>329</v>
+      </c>
+      <c r="O149" s="36" t="s">
+        <v>329</v>
+      </c>
+      <c r="P149" s="36" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q149" s="36" t="s">
+        <v>329</v>
+      </c>
+      <c r="R149" s="36" t="s">
+        <v>329</v>
+      </c>
+      <c r="S149" s="36" t="s">
+        <v>329</v>
+      </c>
+      <c r="T149" s="36" t="s">
+        <v>329</v>
+      </c>
+      <c r="U149" s="36" t="s">
+        <v>329</v>
+      </c>
+      <c r="V149" s="36" t="s">
+        <v>329</v>
+      </c>
+      <c r="W149" s="37" t="s">
         <v>329</v>
       </c>
     </row>
@@ -8425,34 +8533,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.375" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>106</v>
       </c>

--- a/doc/三级菜单/系统目录菜单重排1215.xlsx
+++ b/doc/三级菜单/系统目录菜单重排1215.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\Master\doc\三级菜单\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC87629E-3052-4ACF-88EF-89F1B25409EF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="目录结构" sheetId="1" r:id="rId1"/>
@@ -26,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="352">
   <si>
     <t>一级菜单</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1438,8 +1432,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2122,47 +2116,47 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE149"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E126" sqref="E126"/>
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q69" sqref="Q69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.77734375" style="16" customWidth="1"/>
-    <col min="7" max="7" width="20.21875" customWidth="1"/>
-    <col min="8" max="8" width="21.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.625" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.125" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.75" style="16" customWidth="1"/>
+    <col min="7" max="7" width="20.25" customWidth="1"/>
+    <col min="8" max="8" width="21.625" customWidth="1"/>
     <col min="9" max="9" width="22" customWidth="1"/>
-    <col min="10" max="10" width="23.109375" customWidth="1"/>
-    <col min="11" max="12" width="0.109375" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="23.125" customWidth="1"/>
+    <col min="11" max="12" width="0.125" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
-    <col min="14" max="14" width="18.6640625" customWidth="1"/>
-    <col min="15" max="15" width="13.44140625" customWidth="1"/>
-    <col min="16" max="16" width="16.21875" customWidth="1"/>
-    <col min="17" max="17" width="26.77734375" customWidth="1"/>
-    <col min="18" max="18" width="27.109375" customWidth="1"/>
+    <col min="14" max="14" width="18.625" customWidth="1"/>
+    <col min="15" max="15" width="13.5" customWidth="1"/>
+    <col min="16" max="16" width="16.25" customWidth="1"/>
+    <col min="17" max="17" width="26.75" customWidth="1"/>
+    <col min="18" max="18" width="27.125" customWidth="1"/>
     <col min="19" max="19" width="29" customWidth="1"/>
-    <col min="20" max="21" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.88671875" customWidth="1"/>
+    <col min="20" max="21" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" ht="20.45" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2235,7 +2229,7 @@
       <c r="AD1" s="1"/>
       <c r="AE1" s="1"/>
     </row>
-    <row r="2" spans="1:31" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -2278,7 +2272,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="3" spans="1:31" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A3" s="3"/>
       <c r="B3" s="13"/>
       <c r="C3" s="4"/>
@@ -2313,7 +2307,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="4" spans="1:31" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="13"/>
       <c r="C4" s="4"/>
@@ -2348,7 +2342,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="5" spans="1:31" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A5" s="3"/>
       <c r="B5" s="13"/>
       <c r="C5" s="4"/>
@@ -2409,7 +2403,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="6" spans="1:31" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="13"/>
       <c r="C6" s="4"/>
@@ -2444,7 +2438,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="7" spans="1:31" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="13"/>
       <c r="C7" s="4"/>
@@ -2479,7 +2473,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="8" spans="1:31" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="13"/>
       <c r="C8" s="4"/>
@@ -2540,7 +2534,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="9" spans="1:31" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="13"/>
       <c r="C9" s="4"/>
@@ -2575,7 +2569,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="10" spans="1:31" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="13"/>
       <c r="C10" s="4"/>
@@ -2610,7 +2604,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="11" spans="1:31" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A11" s="3"/>
       <c r="B11" s="13"/>
       <c r="C11" s="4"/>
@@ -2671,7 +2665,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="12" spans="1:31" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A12" s="3"/>
       <c r="B12" s="13"/>
       <c r="C12" s="4"/>
@@ -2732,7 +2726,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="13" spans="1:31" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="13"/>
       <c r="C13" s="4"/>
@@ -2767,7 +2761,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="14" spans="1:31" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="13"/>
       <c r="C14" s="4"/>
@@ -2828,7 +2822,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="15" spans="1:31" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A15" s="3"/>
       <c r="B15" s="13"/>
       <c r="C15" s="4" t="s">
@@ -2867,7 +2861,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="16" spans="1:31" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="13"/>
       <c r="C16" s="4"/>
@@ -2928,7 +2922,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="17" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="13"/>
       <c r="C17" s="4"/>
@@ -2963,7 +2957,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="18" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="13"/>
       <c r="C18" s="4"/>
@@ -3024,7 +3018,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="19" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A19" s="3"/>
       <c r="B19" s="13"/>
       <c r="C19" s="4"/>
@@ -3059,7 +3053,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="20" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A20" s="3"/>
       <c r="B20" s="13"/>
       <c r="C20" s="4"/>
@@ -3094,7 +3088,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" ht="20.45" customHeight="1">
       <c r="A21" s="8"/>
       <c r="B21" s="14"/>
       <c r="C21" s="6" t="s">
@@ -3135,7 +3129,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" ht="20.45" customHeight="1">
       <c r="A22" s="8"/>
       <c r="B22" s="14"/>
       <c r="C22" s="6"/>
@@ -3196,7 +3190,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" ht="20.45" customHeight="1">
       <c r="A23" s="8"/>
       <c r="B23" s="14"/>
       <c r="C23" s="6"/>
@@ -3257,7 +3251,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" ht="20.45" customHeight="1">
       <c r="A24" s="8"/>
       <c r="B24" s="14"/>
       <c r="C24" s="6"/>
@@ -3318,7 +3312,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" ht="20.45" customHeight="1">
       <c r="A25" s="8"/>
       <c r="B25" s="14"/>
       <c r="C25" s="6"/>
@@ -3379,7 +3373,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" ht="20.45" customHeight="1">
       <c r="A26" s="8"/>
       <c r="B26" s="14"/>
       <c r="C26" s="6"/>
@@ -3440,7 +3434,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" ht="20.45" customHeight="1">
       <c r="A27" s="8"/>
       <c r="B27" s="14"/>
       <c r="C27" s="6"/>
@@ -3501,7 +3495,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="28" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A28" s="3" t="s">
         <v>19</v>
       </c>
@@ -3540,7 +3534,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="29" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A29" s="3"/>
       <c r="B29" s="13"/>
       <c r="C29" s="4" t="s">
@@ -3577,7 +3571,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="30" spans="1:23" s="32" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" s="32" customFormat="1" ht="20.45" customHeight="1">
       <c r="A30" s="27"/>
       <c r="B30" s="28"/>
       <c r="C30" s="29" t="s">
@@ -3638,7 +3632,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="31" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A31" s="3"/>
       <c r="B31" s="13"/>
       <c r="C31" s="4" t="s">
@@ -3673,7 +3667,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="32" spans="1:23" s="32" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" s="32" customFormat="1" ht="20.45" customHeight="1">
       <c r="A32" s="27"/>
       <c r="B32" s="28"/>
       <c r="C32" s="29" t="s">
@@ -3734,7 +3728,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="33" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A33" s="3"/>
       <c r="B33" s="13"/>
       <c r="C33" s="4" t="s">
@@ -3769,7 +3763,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="34" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A34" s="3"/>
       <c r="B34" s="13"/>
       <c r="C34" s="4" t="s">
@@ -3806,7 +3800,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="35" spans="1:23" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" s="5" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A35" s="3"/>
       <c r="B35" s="13"/>
       <c r="C35" s="4" t="s">
@@ -3841,7 +3835,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="36" spans="1:23" s="32" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" s="32" customFormat="1" ht="20.45" customHeight="1">
       <c r="A36" s="27"/>
       <c r="B36" s="28"/>
       <c r="C36" s="29" t="s">
@@ -3898,7 +3892,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="37" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A37" s="3"/>
       <c r="B37" s="13"/>
       <c r="C37" s="4" t="s">
@@ -3939,7 +3933,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="38" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A38" s="3"/>
       <c r="B38" s="13"/>
       <c r="C38" s="4"/>
@@ -3976,7 +3970,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="39" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A39" s="3" t="s">
         <v>29</v>
       </c>
@@ -4017,7 +4011,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="40" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A40" s="3"/>
       <c r="B40" s="13"/>
       <c r="C40" s="4" t="s">
@@ -4054,7 +4048,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="41" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A41" s="3"/>
       <c r="B41" s="13"/>
       <c r="C41" s="4" t="s">
@@ -4091,7 +4085,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="42" spans="1:23" s="32" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" s="32" customFormat="1" ht="20.45" customHeight="1">
       <c r="A42" s="27"/>
       <c r="B42" s="28"/>
       <c r="C42" s="29" t="s">
@@ -4152,7 +4146,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="43" spans="1:23" s="32" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" s="32" customFormat="1" ht="20.45" customHeight="1">
       <c r="A43" s="27"/>
       <c r="B43" s="28"/>
       <c r="C43" s="29" t="s">
@@ -4213,7 +4207,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="44" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A44" s="3"/>
       <c r="B44" s="13"/>
       <c r="C44" s="4" t="s">
@@ -4250,7 +4244,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="45" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A45" s="3"/>
       <c r="B45" s="13"/>
       <c r="C45" s="4" t="s">
@@ -4287,7 +4281,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="46" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A46" s="3"/>
       <c r="B46" s="13"/>
       <c r="C46" s="4" t="s">
@@ -4324,7 +4318,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="47" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A47" s="3"/>
       <c r="B47" s="13"/>
       <c r="C47" s="4" t="s">
@@ -4361,7 +4355,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="48" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A48" s="3"/>
       <c r="B48" s="13"/>
       <c r="C48" s="4" t="s">
@@ -4402,7 +4396,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="49" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A49" s="3"/>
       <c r="B49" s="13"/>
       <c r="C49" s="4"/>
@@ -4439,7 +4433,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="50" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A50" s="3" t="s">
         <v>39</v>
       </c>
@@ -4478,7 +4472,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="51" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A51" s="3"/>
       <c r="B51" s="13"/>
       <c r="C51" s="17" t="s">
@@ -4515,7 +4509,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="52" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A52" s="3"/>
       <c r="B52" s="13"/>
       <c r="C52" s="4" t="s">
@@ -4552,7 +4546,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="53" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A53" s="3"/>
       <c r="B53" s="13"/>
       <c r="C53" s="4" t="s">
@@ -4589,7 +4583,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="54" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A54" s="3"/>
       <c r="B54" s="13"/>
       <c r="C54" s="4" t="s">
@@ -4626,7 +4620,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="55" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A55" s="3"/>
       <c r="B55" s="13"/>
       <c r="C55" s="4" t="s">
@@ -4663,7 +4657,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="56" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A56" s="3"/>
       <c r="B56" s="13"/>
       <c r="C56" s="4" t="s">
@@ -4700,7 +4694,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="57" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A57" s="3"/>
       <c r="B57" s="13"/>
       <c r="C57" s="17" t="s">
@@ -4737,7 +4731,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="58" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A58" s="3"/>
       <c r="B58" s="13"/>
       <c r="C58" s="4" t="s">
@@ -4772,7 +4766,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="59" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A59" s="3"/>
       <c r="B59" s="13"/>
       <c r="C59" s="4" t="s">
@@ -4809,7 +4803,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="60" spans="1:23" s="32" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:23" s="32" customFormat="1" ht="20.45" customHeight="1">
       <c r="A60" s="27"/>
       <c r="B60" s="28"/>
       <c r="C60" s="29" t="s">
@@ -4872,7 +4866,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="61" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A61" s="3"/>
       <c r="B61" s="13"/>
       <c r="C61" s="21" t="s">
@@ -4907,7 +4901,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="62" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A62" s="3"/>
       <c r="B62" s="13"/>
       <c r="C62" s="21" t="s">
@@ -4944,7 +4938,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="63" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A63" s="3"/>
       <c r="B63" s="13"/>
       <c r="C63" s="4" t="s">
@@ -4985,7 +4979,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="64" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A64" s="3"/>
       <c r="B64" s="13"/>
       <c r="C64" s="4"/>
@@ -5022,7 +5016,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="65" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A65" s="3" t="s">
         <v>129</v>
       </c>
@@ -5063,7 +5057,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="66" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A66" s="3"/>
       <c r="B66" s="13"/>
       <c r="C66" s="4" t="s">
@@ -5100,7 +5094,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="67" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A67" s="3"/>
       <c r="B67" s="13"/>
       <c r="C67" s="4" t="s">
@@ -5137,7 +5131,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="68" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A68" s="3"/>
       <c r="B68" s="13"/>
       <c r="C68" s="4" t="s">
@@ -5174,7 +5168,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="69" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A69" s="3"/>
       <c r="B69" s="13"/>
       <c r="C69" s="4" t="s">
@@ -5198,8 +5192,12 @@
       <c r="O69" s="23" t="s">
         <v>329</v>
       </c>
-      <c r="P69" s="4"/>
-      <c r="Q69" s="4"/>
+      <c r="P69" s="23" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q69" s="23" t="s">
+        <v>329</v>
+      </c>
       <c r="R69" s="4"/>
       <c r="S69" s="4"/>
       <c r="T69" s="4"/>
@@ -5211,7 +5209,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="70" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A70" s="3"/>
       <c r="B70" s="13"/>
       <c r="C70" s="12" t="s">
@@ -5254,7 +5252,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="71" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A71" s="3"/>
       <c r="B71" s="13"/>
       <c r="C71" s="4" t="s">
@@ -5293,7 +5291,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="72" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A72" s="3"/>
       <c r="B72" s="13"/>
       <c r="C72" s="4" t="s">
@@ -5332,7 +5330,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="73" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A73" s="3"/>
       <c r="B73" s="13"/>
       <c r="C73" s="12" t="s">
@@ -5371,7 +5369,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="74" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A74" s="3"/>
       <c r="B74" s="13"/>
       <c r="C74" s="12" t="s">
@@ -5414,7 +5412,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="75" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A75" s="3"/>
       <c r="B75" s="13"/>
       <c r="C75" s="4" t="s">
@@ -5457,7 +5455,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="76" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A76" s="3"/>
       <c r="B76" s="13"/>
       <c r="C76" s="4"/>
@@ -5496,7 +5494,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="77" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A77" s="3"/>
       <c r="B77" s="13"/>
       <c r="C77" s="4" t="s">
@@ -5541,7 +5539,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="78" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A78" s="3"/>
       <c r="B78" s="13"/>
       <c r="C78" s="4"/>
@@ -5582,7 +5580,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="79" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A79" s="3"/>
       <c r="B79" s="13"/>
       <c r="C79" s="4"/>
@@ -5623,7 +5621,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="80" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A80" s="3"/>
       <c r="B80" s="13"/>
       <c r="C80" s="4"/>
@@ -5664,7 +5662,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="81" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A81" s="3"/>
       <c r="B81" s="13"/>
       <c r="C81" s="4"/>
@@ -5705,7 +5703,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="82" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A82" s="3"/>
       <c r="B82" s="13"/>
       <c r="C82" s="4"/>
@@ -5746,7 +5744,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="83" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A83" s="3"/>
       <c r="B83" s="13"/>
       <c r="C83" s="4"/>
@@ -5787,7 +5785,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="84" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A84" s="3"/>
       <c r="B84" s="13"/>
       <c r="C84" s="4"/>
@@ -5828,7 +5826,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="85" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A85" s="3"/>
       <c r="B85" s="13"/>
       <c r="C85" s="4"/>
@@ -5869,7 +5867,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="86" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A86" s="3"/>
       <c r="B86" s="13"/>
       <c r="C86" s="4"/>
@@ -5912,7 +5910,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="87" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A87" s="3"/>
       <c r="B87" s="13"/>
       <c r="C87" s="4" t="s">
@@ -5953,7 +5951,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="88" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A88" s="3"/>
       <c r="B88" s="13"/>
       <c r="C88" s="4"/>
@@ -5990,7 +5988,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="89" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A89" s="3"/>
       <c r="B89" s="13"/>
       <c r="C89" s="4"/>
@@ -6027,7 +6025,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="90" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A90" s="3"/>
       <c r="B90" s="13"/>
       <c r="C90" s="4"/>
@@ -6066,7 +6064,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="91" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A91" s="3"/>
       <c r="B91" s="13"/>
       <c r="C91" s="4"/>
@@ -6105,7 +6103,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="92" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A92" s="3"/>
       <c r="B92" s="13"/>
       <c r="C92" s="4"/>
@@ -6144,7 +6142,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="93" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A93" s="3"/>
       <c r="B93" s="13"/>
       <c r="C93" s="4"/>
@@ -6181,7 +6179,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="94" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A94" s="3" t="s">
         <v>130</v>
       </c>
@@ -6226,7 +6224,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="95" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A95" s="3"/>
       <c r="B95" s="13"/>
       <c r="C95" s="4"/>
@@ -6263,7 +6261,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="96" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A96" s="3"/>
       <c r="B96" s="13"/>
       <c r="C96" s="4"/>
@@ -6300,7 +6298,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="97" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A97" s="3"/>
       <c r="B97" s="13"/>
       <c r="C97" s="4"/>
@@ -6337,7 +6335,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="98" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A98" s="3"/>
       <c r="B98" s="13"/>
       <c r="C98" s="4"/>
@@ -6374,7 +6372,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="99" spans="1:23" s="32" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:23" s="32" customFormat="1" ht="20.45" customHeight="1">
       <c r="A99" s="27"/>
       <c r="B99" s="28"/>
       <c r="C99" s="29"/>
@@ -6429,7 +6427,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="100" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A100" s="3"/>
       <c r="B100" s="13"/>
       <c r="C100" s="4"/>
@@ -6466,7 +6464,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="101" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A101" s="3"/>
       <c r="B101" s="13"/>
       <c r="C101" s="4"/>
@@ -6503,7 +6501,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="102" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A102" s="3"/>
       <c r="B102" s="13"/>
       <c r="C102" s="4"/>
@@ -6540,7 +6538,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="103" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A103" s="3"/>
       <c r="B103" s="13"/>
       <c r="C103" s="4"/>
@@ -6577,7 +6575,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="104" spans="1:23" s="32" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:23" s="32" customFormat="1" ht="20.45" customHeight="1">
       <c r="A104" s="27"/>
       <c r="B104" s="28"/>
       <c r="C104" s="29"/>
@@ -6632,7 +6630,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="105" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A105" s="3"/>
       <c r="B105" s="13"/>
       <c r="C105" s="4"/>
@@ -6667,7 +6665,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="106" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A106" s="3"/>
       <c r="B106" s="13"/>
       <c r="C106" s="4"/>
@@ -6704,7 +6702,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="107" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A107" s="3"/>
       <c r="B107" s="13"/>
       <c r="C107" s="4"/>
@@ -6741,7 +6739,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="108" spans="1:23" s="5" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:23" s="5" customFormat="1" ht="34.9" customHeight="1">
       <c r="A108" s="3"/>
       <c r="B108" s="13"/>
       <c r="C108" s="7" t="s">
@@ -6784,7 +6782,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="109" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A109" s="3"/>
       <c r="B109" s="13"/>
       <c r="C109" s="4"/>
@@ -6823,7 +6821,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="110" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A110" s="3"/>
       <c r="B110" s="13"/>
       <c r="C110" s="4"/>
@@ -6862,7 +6860,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="111" spans="1:23" s="32" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:23" s="32" customFormat="1" ht="20.45" customHeight="1">
       <c r="A111" s="27"/>
       <c r="B111" s="28"/>
       <c r="C111" s="29" t="s">
@@ -6921,7 +6919,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="112" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A112" s="3"/>
       <c r="B112" s="13"/>
       <c r="C112" s="4"/>
@@ -6960,7 +6958,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="113" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A113" s="3"/>
       <c r="B113" s="13"/>
       <c r="C113" s="4"/>
@@ -6999,7 +6997,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="114" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A114" s="3"/>
       <c r="B114" s="13"/>
       <c r="C114" s="4"/>
@@ -7038,7 +7036,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="115" spans="1:23" s="32" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:23" s="32" customFormat="1" ht="20.45" customHeight="1">
       <c r="A115" s="27"/>
       <c r="B115" s="28"/>
       <c r="C115" s="29"/>
@@ -7093,7 +7091,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="116" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A116" s="3"/>
       <c r="B116" s="13"/>
       <c r="C116" s="4"/>
@@ -7132,7 +7130,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="117" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A117" s="3"/>
       <c r="B117" s="13"/>
       <c r="C117" s="4"/>
@@ -7171,7 +7169,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="118" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A118" s="3"/>
       <c r="B118" s="13"/>
       <c r="C118" s="4"/>
@@ -7210,7 +7208,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="119" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A119" s="3"/>
       <c r="B119" s="13"/>
       <c r="C119" s="4" t="s">
@@ -7251,7 +7249,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="120" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A120" s="3"/>
       <c r="B120" s="13"/>
       <c r="C120" s="4"/>
@@ -7288,7 +7286,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="121" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A121" s="3" t="s">
         <v>106</v>
       </c>
@@ -7333,7 +7331,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="122" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A122" s="3"/>
       <c r="B122" s="13"/>
       <c r="C122" s="4"/>
@@ -7368,7 +7366,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="123" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A123" s="3"/>
       <c r="B123" s="13"/>
       <c r="C123" s="4"/>
@@ -7405,7 +7403,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="124" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A124" s="3"/>
       <c r="B124" s="13"/>
       <c r="C124" s="4"/>
@@ -7440,7 +7438,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="125" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A125" s="3"/>
       <c r="B125" s="13"/>
       <c r="C125" s="4"/>
@@ -7477,7 +7475,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="126" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A126" s="3"/>
       <c r="B126" s="13"/>
       <c r="C126" s="4"/>
@@ -7514,7 +7512,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="127" spans="1:23" s="32" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:23" s="32" customFormat="1" ht="20.45" customHeight="1">
       <c r="A127" s="27"/>
       <c r="B127" s="28"/>
       <c r="C127" s="29"/>
@@ -7577,7 +7575,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="128" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A128" s="3"/>
       <c r="B128" s="13"/>
       <c r="C128" s="4"/>
@@ -7614,7 +7612,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="129" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A129" s="3"/>
       <c r="B129" s="13"/>
       <c r="C129" s="4"/>
@@ -7651,7 +7649,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="130" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A130" s="3"/>
       <c r="B130" s="13"/>
       <c r="C130" s="4"/>
@@ -7688,7 +7686,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="131" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A131" s="3"/>
       <c r="B131" s="13"/>
       <c r="C131" s="4"/>
@@ -7725,7 +7723,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="132" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A132" s="3"/>
       <c r="B132" s="13"/>
       <c r="C132" s="4" t="s">
@@ -7764,7 +7762,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="133" spans="1:23" s="32" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:23" s="32" customFormat="1" ht="20.45" customHeight="1">
       <c r="A133" s="27"/>
       <c r="B133" s="28"/>
       <c r="C133" s="29"/>
@@ -7827,7 +7825,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="134" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A134" s="3"/>
       <c r="B134" s="13"/>
       <c r="C134" s="4"/>
@@ -7864,7 +7862,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="135" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A135" s="3"/>
       <c r="B135" s="13"/>
       <c r="C135" s="4"/>
@@ -7901,7 +7899,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="136" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A136" s="3"/>
       <c r="B136" s="13"/>
       <c r="C136" s="4"/>
@@ -7938,7 +7936,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="137" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A137" s="3"/>
       <c r="B137" s="13"/>
       <c r="C137" s="4"/>
@@ -7975,7 +7973,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="138" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A138" s="3"/>
       <c r="B138" s="13"/>
       <c r="C138" s="4"/>
@@ -8012,7 +8010,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="139" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A139" s="3"/>
       <c r="B139" s="13"/>
       <c r="C139" s="4"/>
@@ -8049,7 +8047,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="140" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A140" s="3"/>
       <c r="B140" s="13"/>
       <c r="C140" s="4"/>
@@ -8086,7 +8084,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="141" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A141" s="3"/>
       <c r="B141" s="13"/>
       <c r="C141" s="4"/>
@@ -8123,7 +8121,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="142" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A142" s="3"/>
       <c r="B142" s="13"/>
       <c r="C142" s="4" t="s">
@@ -8164,7 +8162,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="143" spans="1:23" s="32" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:23" s="32" customFormat="1" ht="20.45" customHeight="1">
       <c r="A143" s="27"/>
       <c r="B143" s="28"/>
       <c r="C143" s="29"/>
@@ -8227,7 +8225,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="144" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A144" s="3"/>
       <c r="B144" s="13"/>
       <c r="C144" s="4"/>
@@ -8262,7 +8260,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="145" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A145" s="3"/>
       <c r="B145" s="13"/>
       <c r="C145" s="4"/>
@@ -8297,7 +8295,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="146" spans="1:23" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:23" s="5" customFormat="1" ht="20.45" customHeight="1">
       <c r="A146" s="3"/>
       <c r="B146" s="13"/>
       <c r="C146" s="4"/>
@@ -8334,7 +8332,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="147" spans="1:23" s="32" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:23" s="32" customFormat="1" ht="20.45" customHeight="1">
       <c r="A147" s="27" t="s">
         <v>125</v>
       </c>
@@ -8395,7 +8393,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="148" spans="1:23" s="32" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:23" s="32" customFormat="1" ht="20.45" customHeight="1">
       <c r="A148" s="27" t="s">
         <v>126</v>
       </c>
@@ -8462,7 +8460,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="149" spans="1:23" s="32" customFormat="1" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:23" s="32" customFormat="1" ht="20.45" customHeight="1" thickBot="1">
       <c r="A149" s="33"/>
       <c r="B149" s="34"/>
       <c r="C149" s="35" t="s">
@@ -8533,34 +8531,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="1" max="1" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>106</v>
       </c>
